--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1,98 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\CnnDemo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="计算数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>感知野</t>
+  </si>
   <si>
     <t>偏移</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核</t>
+  </si>
+  <si>
+    <t>填充</t>
+  </si>
+  <si>
+    <t>离散卷积</t>
   </si>
   <si>
     <t>宽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感知野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷积核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填充</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>左</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>右</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离散卷积</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>反向权重计算</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,27 +78,356 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,39 +435,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -207,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -242,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,32 +1002,28 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.775" defaultRowHeight="13.95" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.77734375" style="1"/>
-    <col min="3" max="3" width="3.77734375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="3.77734375" style="1"/>
-    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.77734375" style="1"/>
+    <col min="1" max="2" width="3.775" style="1"/>
+    <col min="3" max="3" width="3.775" style="1" customWidth="1"/>
+    <col min="4" max="10" width="3.775" style="1"/>
+    <col min="11" max="11" width="3.775" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:26">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -522,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -547,9 +1128,9 @@
       <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -581,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -589,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -597,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -623,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="2:13">
       <c r="B12" s="1">
         <v>0</v>
       </c>
@@ -661,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="2:13">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -675,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="2:13">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -689,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="2:13">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -715,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="2:13">
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -741,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="5:10">
       <c r="E17" s="1">
         <v>2</v>
       </c>
@@ -749,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="5:10">
       <c r="E18" s="1">
         <v>3</v>
       </c>
@@ -757,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="5:10">
       <c r="E19" s="1">
         <v>4</v>
       </c>
@@ -765,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="5:10">
       <c r="E20" s="1">
         <v>5</v>
       </c>
@@ -785,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="2:13">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -823,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="2:11">
       <c r="B25" s="1">
         <v>1</v>
       </c>
@@ -837,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="2:11">
       <c r="B26" s="1">
         <v>2</v>
       </c>
@@ -851,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" customHeight="1" spans="2:11">
       <c r="B27" s="1">
         <v>3</v>
       </c>
@@ -865,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" customHeight="1" spans="2:11">
       <c r="B28" s="1">
         <v>4</v>
       </c>
@@ -897,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" customHeight="1" spans="2:11">
       <c r="B29" s="1">
         <v>0</v>
       </c>
@@ -929,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" customHeight="1" spans="2:11">
       <c r="B30" s="1">
         <v>0</v>
       </c>
@@ -943,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="2:11">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -957,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" customHeight="1" spans="2:11">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -971,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" customHeight="1" spans="2:11">
       <c r="B33" s="1">
         <v>0</v>
       </c>
@@ -1003,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" customHeight="1" spans="4:6">
       <c r="D39" s="1">
         <v>0</v>
       </c>
@@ -1014,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customHeight="1" spans="4:6">
       <c r="D40" s="1">
         <v>1</v>
       </c>
@@ -1022,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customHeight="1" spans="4:9">
       <c r="D41" s="1">
         <v>2</v>
       </c>
@@ -1042,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" customHeight="1" spans="6:9">
       <c r="F42" s="1">
         <v>1</v>
       </c>
@@ -1050,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="6:9">
       <c r="F43" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" customHeight="1" spans="6:9">
       <c r="F44" s="1">
         <v>3</v>
       </c>
@@ -1073,122 +1654,118 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.775" defaultRowHeight="13.95" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.77734375" style="1"/>
+    <col min="1" max="5" width="3.775" style="1"/>
+    <col min="6" max="7" width="9.625" style="1"/>
+    <col min="8" max="8" width="4.375" style="1"/>
+    <col min="9" max="10" width="3.775" style="1"/>
+    <col min="11" max="11" width="4.375" style="1"/>
+    <col min="12" max="12" width="3.775" style="1"/>
+    <col min="13" max="13" width="4.375" style="1"/>
+    <col min="14" max="14" width="3.775" style="1"/>
+    <col min="15" max="15" width="4.375" style="1"/>
+    <col min="16" max="16384" width="3.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" customHeight="1" spans="2:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="2:21">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" customHeight="1" spans="2:15">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -1224,23 +1801,23 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>ROUNDDOWN( J3/2,0)</f>
+        <f>ROUNDDOWN(J3/2,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>ROUNDDOWN( K3/2,0)</f>
+        <f>ROUNDDOWN(K3/2,0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f>ROUNDUP( J3/2,0)</f>
+        <f>ROUNDUP(J3/2,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <f>ROUNDUP( K3/2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(K3/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:15">
       <c r="B4" s="1">
         <v>8</v>
       </c>
@@ -1276,23 +1853,23 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <f>ROUNDDOWN( J4/2,0)</f>
+        <f>ROUNDDOWN(J4/2,0)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <f>ROUNDDOWN( K4/2,0)</f>
+        <f>ROUNDDOWN(K4/2,0)</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>ROUNDUP( J4/2,0)</f>
+        <f>ROUNDUP(J4/2,0)</f>
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <f>ROUNDUP( K4/2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUNDUP(K4/2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:15">
       <c r="B5" s="1">
         <v>8</v>
       </c>
@@ -1328,23 +1905,23 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L11" si="3">ROUNDDOWN( J5/2,0)</f>
+        <f t="shared" ref="L5:L11" si="3">ROUNDDOWN(J5/2,0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M11" si="4">ROUNDDOWN( K5/2,0)</f>
+        <f t="shared" ref="M5:M11" si="4">ROUNDDOWN(K5/2,0)</f>
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N11" si="5">ROUNDUP( J5/2,0)</f>
+        <f t="shared" ref="N5:N11" si="5">ROUNDUP(J5/2,0)</f>
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O11" si="6">ROUNDUP( K5/2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O5:O11" si="6">ROUNDUP(K5/2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:15">
       <c r="B6" s="1">
         <v>8</v>
       </c>
@@ -1396,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="2:15">
       <c r="B7" s="1">
         <v>8</v>
       </c>
@@ -1448,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="2:15">
       <c r="B8" s="1">
         <v>8</v>
       </c>
@@ -1500,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="2:15">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1552,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="2:15">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1604,7 +2181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="2:15">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1656,16 +2233,179 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" customHeight="1" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:15">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f>ROUNDUP((B17+F17-D17)/F17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f>ROUNDUP((C17+G17-E17)/G17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <f>F17*(H17-1)+D17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f>G17*(I17-1)+E17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>ROUNDDOWN(J17/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>ROUNDDOWN(K17/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f>ROUNDUP(J17/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f>ROUNDUP(K17/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:15">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f>ROUNDUP((B18+F18-D18)/F18,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <f>ROUNDUP((C18+G18-E18)/G18,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <f>F18*(H18-1)+D18-B18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f>G18*(I18-1)+E18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>ROUNDDOWN(J18/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f>ROUNDDOWN(K18/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f>ROUNDUP(J18/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f>ROUNDUP(K18/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:15">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f>(B18-D18)/(H18-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f>(C18-E18)/(I18-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f>ROUNDUP((B19+F19-D19)/F19,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <f>ROUNDUP((C19+G19-E19)/G19,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <f>F19*(H19-1)+D19-B19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f>G19*(I19-1)+E19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>ROUNDDOWN(J19/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f>ROUNDDOWN(K19/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f>ROUNDUP(J19/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f>ROUNDUP(K19/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="计算数据" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>区域</t>
   </si>
@@ -55,6 +56,15 @@
   <si>
     <t>反向权重计算</t>
   </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>pooling</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +76,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +101,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -98,7 +116,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,21 +132,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,61 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +177,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,227 +536,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1665,7 +1668,7 @@
   <sheetPr/>
   <dimension ref="B1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2258,35 +2261,35 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <f>ROUNDUP((B17+F17-D17)/F17,0)</f>
+        <f t="shared" ref="H17:H19" si="7">ROUNDUP((B17+F17-D17)/F17,0)</f>
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <f>ROUNDUP((C17+G17-E17)/G17,0)</f>
+        <f t="shared" ref="I17:I19" si="8">ROUNDUP((C17+G17-E17)/G17,0)</f>
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <f>F17*(H17-1)+D17-B17</f>
+        <f t="shared" ref="J17:J19" si="9">F17*(H17-1)+D17-B17</f>
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <f>G17*(I17-1)+E17-C17</f>
+        <f t="shared" ref="K17:K19" si="10">G17*(I17-1)+E17-C17</f>
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f>ROUNDDOWN(J17/2,0)</f>
+        <f t="shared" ref="L17:L19" si="11">ROUNDDOWN(J17/2,0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f>ROUNDDOWN(K17/2,0)</f>
+        <f t="shared" ref="M17:M19" si="12">ROUNDDOWN(K17/2,0)</f>
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <f>ROUNDUP(J17/2,0)</f>
+        <f t="shared" ref="N17:N19" si="13">ROUNDUP(J17/2,0)</f>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f>ROUNDUP(K17/2,0)</f>
+        <f t="shared" ref="O17:O19" si="14">ROUNDUP(K17/2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2310,35 +2313,35 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f>ROUNDUP((B18+F18-D18)/F18,0)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I18" s="1">
-        <f>ROUNDUP((C18+G18-E18)/G18,0)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J18" s="1">
-        <f>F18*(H18-1)+D18-B18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f>G18*(I18-1)+E18-C18</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>ROUNDDOWN(J18/2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f>ROUNDDOWN(K18/2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <f>ROUNDUP(J18/2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <f>ROUNDUP(K18/2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2364,35 +2367,35 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f>ROUNDUP((B19+F19-D19)/F19,0)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I19" s="1">
-        <f>ROUNDUP((C19+G19-E19)/G19,0)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J19" s="1">
-        <f>F19*(H19-1)+D19-B19</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f>G19*(I19-1)+E19-C19</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>ROUNDDOWN(J19/2,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f>ROUNDDOWN(K19/2,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f>ROUNDUP(J19/2,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f>ROUNDUP(K19/2,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2408,4 +2411,56 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>区域</t>
   </si>
@@ -60,7 +60,22 @@
     <t>conv</t>
   </si>
   <si>
+    <t>连接方式</t>
+  </si>
+  <si>
     <t>pooling</t>
+  </si>
+  <si>
+    <t>全连接：sum(每个输入*对应权重)</t>
+  </si>
+  <si>
+    <t>随机连接：sum(个别输入*对应权重)</t>
+  </si>
+  <si>
+    <t>一对一连接：每个神经元对应一个输入</t>
+  </si>
+  <si>
+    <t>二维转一维</t>
   </si>
   <si>
     <t>full</t>
@@ -2416,32 +2431,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2451,12 +2483,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
